--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H2">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N2">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O2">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P2">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q2">
-        <v>2.267729155218333</v>
+        <v>3.312505681882667</v>
       </c>
       <c r="R2">
-        <v>20.409562396965</v>
+        <v>29.812551136944</v>
       </c>
       <c r="S2">
-        <v>0.03250126290308303</v>
+        <v>0.05753861055821213</v>
       </c>
       <c r="T2">
-        <v>0.03250126290308304</v>
+        <v>0.05753861055821213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H3">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.295537</v>
       </c>
       <c r="O3">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P3">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q3">
-        <v>0.07157050764566666</v>
+        <v>0.1322617002693333</v>
       </c>
       <c r="R3">
-        <v>0.6441345688110001</v>
+        <v>1.190355302424</v>
       </c>
       <c r="S3">
-        <v>0.00102575383825983</v>
+        <v>0.00229740118037742</v>
       </c>
       <c r="T3">
-        <v>0.00102575383825983</v>
+        <v>0.002297401180377421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H4">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N4">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O4">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P4">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q4">
-        <v>0.8901431161748891</v>
+        <v>1.362217666595556</v>
       </c>
       <c r="R4">
-        <v>8.011288045574002</v>
+        <v>12.25995899936</v>
       </c>
       <c r="S4">
-        <v>0.01275759734075661</v>
+        <v>0.02366187996067396</v>
       </c>
       <c r="T4">
-        <v>0.01275759734075662</v>
+        <v>0.02366187996067396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H5">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I5">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J5">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N5">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O5">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P5">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q5">
-        <v>0.05940630523944446</v>
+        <v>0.031804349816</v>
       </c>
       <c r="R5">
-        <v>0.5346567471550001</v>
+        <v>0.286239148344</v>
       </c>
       <c r="S5">
-        <v>0.0008514155847249277</v>
+        <v>0.0005524452706990978</v>
       </c>
       <c r="T5">
-        <v>0.0008514155847249277</v>
+        <v>0.0005524452706990977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.103153</v>
       </c>
       <c r="I6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N6">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O6">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P6">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q6">
-        <v>33.16015754080166</v>
+        <v>26.21090580334067</v>
       </c>
       <c r="R6">
-        <v>298.441417867215</v>
+        <v>235.898152230066</v>
       </c>
       <c r="S6">
-        <v>0.4752538439880324</v>
+        <v>0.4552864949470058</v>
       </c>
       <c r="T6">
-        <v>0.4752538439880325</v>
+        <v>0.4552864949470058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.103153</v>
       </c>
       <c r="I7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.295537</v>
       </c>
       <c r="O7">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P7">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q7">
         <v>1.046548836462333</v>
@@ -883,10 +883,10 @@
         <v>9.418939528160999</v>
       </c>
       <c r="S7">
-        <v>0.01499921575577358</v>
+        <v>0.01817867551464299</v>
       </c>
       <c r="T7">
-        <v>0.01499921575577359</v>
+        <v>0.01817867551464299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.103153</v>
       </c>
       <c r="I8">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J8">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N8">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O8">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P8">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q8">
-        <v>13.01623075149711</v>
+        <v>10.77883704111555</v>
       </c>
       <c r="R8">
-        <v>117.146076763474</v>
+        <v>97.00953337003999</v>
       </c>
       <c r="S8">
-        <v>0.1865495871445334</v>
+        <v>0.1872296582527485</v>
       </c>
       <c r="T8">
-        <v>0.1865495871445335</v>
+        <v>0.1872296582527485</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.103153</v>
       </c>
       <c r="I9">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J9">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N9">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O9">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P9">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q9">
-        <v>0.8686762421005556</v>
+        <v>0.251658682949</v>
       </c>
       <c r="R9">
-        <v>7.818086178905</v>
+        <v>2.264928146541</v>
       </c>
       <c r="S9">
-        <v>0.0124499325050368</v>
+        <v>0.004371340713766055</v>
       </c>
       <c r="T9">
-        <v>0.0124499325050368</v>
+        <v>0.004371340713766055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H10">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.244885</v>
+        <v>19.163974</v>
       </c>
       <c r="N10">
-        <v>72.734655</v>
+        <v>57.491922</v>
       </c>
       <c r="O10">
-        <v>0.6895205882382217</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="P10">
-        <v>0.6895205882382218</v>
+        <v>0.6845732287637933</v>
       </c>
       <c r="Q10">
-        <v>12.682426608845</v>
+        <v>9.887562953421334</v>
       </c>
       <c r="R10">
-        <v>114.141839479605</v>
+        <v>88.98806658079201</v>
       </c>
       <c r="S10">
-        <v>0.1817654813471063</v>
+        <v>0.1717481232585754</v>
       </c>
       <c r="T10">
-        <v>0.1817654813471064</v>
+        <v>0.1717481232585754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H11">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I11">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J11">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.295537</v>
       </c>
       <c r="O11">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148322</v>
       </c>
       <c r="P11">
-        <v>0.02176156637523891</v>
+        <v>0.02733363438148323</v>
       </c>
       <c r="Q11">
-        <v>0.400262839363</v>
+        <v>0.3947905342146666</v>
       </c>
       <c r="R11">
-        <v>3.602365554267</v>
+        <v>3.553114807932</v>
       </c>
       <c r="S11">
-        <v>0.005736596781205498</v>
+        <v>0.006857557686462812</v>
       </c>
       <c r="T11">
-        <v>0.005736596781205499</v>
+        <v>0.006857557686462813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H12">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I12">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J12">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.516752666666667</v>
+        <v>7.880893333333333</v>
       </c>
       <c r="N12">
-        <v>28.550258</v>
+        <v>23.64268</v>
       </c>
       <c r="O12">
-        <v>0.2706548988307292</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="P12">
-        <v>0.2706548988307293</v>
+        <v>0.281520346184098</v>
       </c>
       <c r="Q12">
-        <v>4.978184769675334</v>
+        <v>4.066110137831111</v>
       </c>
       <c r="R12">
-        <v>44.803662927078</v>
+        <v>36.59499124048</v>
       </c>
       <c r="S12">
-        <v>0.07134771434543923</v>
+        <v>0.07062880797067554</v>
       </c>
       <c r="T12">
-        <v>0.07134771434543924</v>
+        <v>0.07062880797067554</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H13">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I13">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J13">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6351283333333334</v>
+        <v>0.183999</v>
       </c>
       <c r="N13">
-        <v>1.905385</v>
+        <v>0.551997</v>
       </c>
       <c r="O13">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625477</v>
       </c>
       <c r="P13">
-        <v>0.01806294655581008</v>
+        <v>0.006572790670625476</v>
       </c>
       <c r="Q13">
-        <v>0.3322337257816667</v>
+        <v>0.09493342538800001</v>
       </c>
       <c r="R13">
-        <v>2.990103532035</v>
+        <v>0.8544008284919999</v>
       </c>
       <c r="S13">
-        <v>0.004761598466048354</v>
+        <v>0.001649004686160325</v>
       </c>
       <c r="T13">
-        <v>0.004761598466048354</v>
+        <v>0.001649004686160325</v>
       </c>
     </row>
   </sheetData>
